--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>4.746064977616768</v>
+        <v>41.45944490826978</v>
       </c>
       <c r="R2">
-        <v>4.746064977616768</v>
+        <v>373.135004174428</v>
       </c>
       <c r="S2">
-        <v>0.0004706486099570716</v>
+        <v>0.003031660599054286</v>
       </c>
       <c r="T2">
-        <v>0.0004706486099570716</v>
+        <v>0.003031660599054286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>27.76293730450829</v>
+        <v>48.91145224806044</v>
       </c>
       <c r="R3">
-        <v>27.76293730450829</v>
+        <v>440.203070232544</v>
       </c>
       <c r="S3">
-        <v>0.002753141373393823</v>
+        <v>0.003576577615813484</v>
       </c>
       <c r="T3">
-        <v>0.002753141373393823</v>
+        <v>0.003576577615813484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>2.304542966940182</v>
+        <v>6.260353545446666</v>
       </c>
       <c r="R4">
-        <v>2.304542966940182</v>
+        <v>56.34318190901999</v>
       </c>
       <c r="S4">
-        <v>0.0002285324682852083</v>
+        <v>0.0004577790952549567</v>
       </c>
       <c r="T4">
-        <v>0.0002285324682852083</v>
+        <v>0.0004577790952549566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>4.553902582057898</v>
+        <v>9.324423103648446</v>
       </c>
       <c r="R5">
-        <v>4.553902582057898</v>
+        <v>83.91980793283599</v>
       </c>
       <c r="S5">
-        <v>0.0004515926204621241</v>
+        <v>0.0006818346505793145</v>
       </c>
       <c r="T5">
-        <v>0.0004515926204621241</v>
+        <v>0.0006818346505793145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>123.9288026104752</v>
+        <v>223.7503680172347</v>
       </c>
       <c r="R6">
-        <v>123.9288026104752</v>
+        <v>2013.753312155112</v>
       </c>
       <c r="S6">
-        <v>0.01228953226669755</v>
+        <v>0.01636141478118153</v>
       </c>
       <c r="T6">
-        <v>0.01228953226669755</v>
+        <v>0.01636141478118153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>2.441581686936939</v>
+        <v>5.19325225589689</v>
       </c>
       <c r="R7">
-        <v>2.441581686936939</v>
+        <v>46.739270303072</v>
       </c>
       <c r="S7">
-        <v>0.0002421220595320516</v>
+        <v>0.0003797488914766426</v>
       </c>
       <c r="T7">
-        <v>0.0002421220595320516</v>
+        <v>0.0003797488914766426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>218.4788452429978</v>
+        <v>1109.541683532547</v>
       </c>
       <c r="R8">
-        <v>218.4788452429978</v>
+        <v>9985.875151792929</v>
       </c>
       <c r="S8">
-        <v>0.02166568837628461</v>
+        <v>0.08113359482782236</v>
       </c>
       <c r="T8">
-        <v>0.02166568837628461</v>
+        <v>0.08113359482782237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>1278.03022323739</v>
+        <v>1308.973026325055</v>
       </c>
       <c r="R9">
-        <v>1278.03022323739</v>
+        <v>11780.7572369255</v>
       </c>
       <c r="S9">
-        <v>0.1267372340847824</v>
+        <v>0.0957167168522066</v>
       </c>
       <c r="T9">
-        <v>0.1267372340847824</v>
+        <v>0.0957167168522066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>106.0865977614137</v>
+        <v>167.5401884345616</v>
       </c>
       <c r="R10">
-        <v>106.0865977614137</v>
+        <v>1507.861695911055</v>
       </c>
       <c r="S10">
-        <v>0.01052019093859023</v>
+        <v>0.01225112852231837</v>
       </c>
       <c r="T10">
-        <v>0.01052019093859023</v>
+        <v>0.01225112852231837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>209.6329026613368</v>
+        <v>249.5411149686721</v>
       </c>
       <c r="R11">
-        <v>209.6329026613368</v>
+        <v>2245.870034718049</v>
       </c>
       <c r="S11">
-        <v>0.02078847101844106</v>
+        <v>0.01824732501287535</v>
       </c>
       <c r="T11">
-        <v>0.02078847101844106</v>
+        <v>0.01824732501287535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>5704.899072047709</v>
+        <v>5988.029038260228</v>
       </c>
       <c r="R12">
-        <v>5704.899072047709</v>
+        <v>53892.26134434206</v>
       </c>
       <c r="S12">
-        <v>0.5657324185125071</v>
+        <v>0.4378657683780375</v>
       </c>
       <c r="T12">
-        <v>0.5657324185125071</v>
+        <v>0.4378657683780375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>112.3949945995675</v>
+        <v>138.9823202834942</v>
       </c>
       <c r="R13">
-        <v>112.3949945995675</v>
+        <v>1250.840882551448</v>
       </c>
       <c r="S13">
-        <v>0.01114576985858756</v>
+        <v>0.01016287664489613</v>
       </c>
       <c r="T13">
-        <v>0.01114576985858756</v>
+        <v>0.01016287664489613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>14.69798545196369</v>
+        <v>238.8459758424708</v>
       </c>
       <c r="R14">
-        <v>14.69798545196369</v>
+        <v>2149.613782582238</v>
       </c>
       <c r="S14">
-        <v>0.001457541448496904</v>
+        <v>0.01746525878014967</v>
       </c>
       <c r="T14">
-        <v>0.001457541448496904</v>
+        <v>0.01746525878014967</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>85.97843698514836</v>
+        <v>281.7766510841581</v>
       </c>
       <c r="R15">
-        <v>85.97843698514836</v>
+        <v>2535.989859757423</v>
       </c>
       <c r="S15">
-        <v>0.008526143667266338</v>
+        <v>0.02060450092169263</v>
       </c>
       <c r="T15">
-        <v>0.008526143667266338</v>
+        <v>0.02060450092169263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>7.136889014638163</v>
+        <v>36.06561194896332</v>
       </c>
       <c r="R16">
-        <v>7.136889014638163</v>
+        <v>324.5905075406699</v>
       </c>
       <c r="S16">
-        <v>0.0007077372328442178</v>
+        <v>0.0026372445402578</v>
       </c>
       <c r="T16">
-        <v>0.0007077372328442178</v>
+        <v>0.0026372445402578</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>14.10288190667741</v>
+        <v>53.71757726825621</v>
       </c>
       <c r="R17">
-        <v>14.10288190667741</v>
+        <v>483.4581954143059</v>
       </c>
       <c r="S17">
-        <v>0.00139852736889824</v>
+        <v>0.003928018400659837</v>
       </c>
       <c r="T17">
-        <v>0.00139852736889824</v>
+        <v>0.003928018400659837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>383.7924146505702</v>
+        <v>1289.015690210761</v>
       </c>
       <c r="R18">
-        <v>383.7924146505702</v>
+        <v>11601.14121189685</v>
       </c>
       <c r="S18">
-        <v>0.03805918530809133</v>
+        <v>0.09425736616158219</v>
       </c>
       <c r="T18">
-        <v>0.03805918530809133</v>
+        <v>0.09425736616158219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>7.561281247438878</v>
+        <v>29.91808996961244</v>
       </c>
       <c r="R19">
-        <v>7.561281247438878</v>
+        <v>269.2628097265119</v>
       </c>
       <c r="S19">
-        <v>0.0007498225425452522</v>
+        <v>0.002187716086419269</v>
       </c>
       <c r="T19">
-        <v>0.0007498225425452522</v>
+        <v>0.002187716086419269</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>17.70091924389541</v>
+        <v>88.56681258224711</v>
       </c>
       <c r="R20">
-        <v>17.70091924389541</v>
+        <v>797.101313240224</v>
       </c>
       <c r="S20">
-        <v>0.001755330589950143</v>
+        <v>0.006476317198252361</v>
       </c>
       <c r="T20">
-        <v>0.001755330589950143</v>
+        <v>0.006476317198252362</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>103.54462349717</v>
+        <v>104.4859967123058</v>
       </c>
       <c r="R21">
-        <v>103.54462349717</v>
+        <v>940.373970410752</v>
       </c>
       <c r="S21">
-        <v>0.01026811334174836</v>
+        <v>0.007640383996613247</v>
       </c>
       <c r="T21">
-        <v>0.01026811334174836</v>
+        <v>0.007640383996613247</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>8.595021168964109</v>
+        <v>13.37354034490666</v>
       </c>
       <c r="R22">
-        <v>8.595021168964109</v>
+        <v>120.36186310416</v>
       </c>
       <c r="S22">
-        <v>0.0008523344675647222</v>
+        <v>0.0009779203610473135</v>
       </c>
       <c r="T22">
-        <v>0.0008523344675647222</v>
+        <v>0.0009779203610473135</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>16.98423056357964</v>
+        <v>19.91909045780978</v>
       </c>
       <c r="R23">
-        <v>16.98423056357964</v>
+        <v>179.271814120288</v>
       </c>
       <c r="S23">
-        <v>0.001684259390387266</v>
+        <v>0.001456554033551344</v>
       </c>
       <c r="T23">
-        <v>0.001684259390387266</v>
+        <v>0.001456554033551344</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>462.2047395782215</v>
+        <v>477.9817229400106</v>
       </c>
       <c r="R24">
-        <v>462.2047395782215</v>
+        <v>4301.835506460096</v>
       </c>
       <c r="S24">
-        <v>0.04583502738036591</v>
+        <v>0.03495170665481508</v>
       </c>
       <c r="T24">
-        <v>0.04583502738036591</v>
+        <v>0.03495170665481508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>9.10612064345286</v>
+        <v>11.09396906441956</v>
       </c>
       <c r="R25">
-        <v>9.10612064345286</v>
+        <v>99.84572157977601</v>
       </c>
       <c r="S25">
-        <v>0.0009030181936309235</v>
+        <v>0.0008112300821716792</v>
       </c>
       <c r="T25">
-        <v>0.0009030181936309235</v>
+        <v>0.0008112300821716792</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>16.40556043134552</v>
+        <v>96.70705374992878</v>
       </c>
       <c r="R26">
-        <v>16.40556043134552</v>
+        <v>870.3634837493591</v>
       </c>
       <c r="S26">
-        <v>0.001626874947771306</v>
+        <v>0.00707156029592195</v>
       </c>
       <c r="T26">
-        <v>0.001626874947771306</v>
+        <v>0.007071560295921951</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>95.96719552910118</v>
+        <v>114.0893818526924</v>
       </c>
       <c r="R27">
-        <v>95.96719552910118</v>
+        <v>1026.804436674232</v>
       </c>
       <c r="S27">
-        <v>0.009516689592381108</v>
+        <v>0.008342617333602436</v>
       </c>
       <c r="T27">
-        <v>0.009516689592381108</v>
+        <v>0.008342617333602436</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>7.966034828658068</v>
+        <v>14.60271231688166</v>
       </c>
       <c r="R28">
-        <v>7.966034828658068</v>
+        <v>131.424410851935</v>
       </c>
       <c r="S28">
-        <v>0.0007899603643564521</v>
+        <v>0.001067801743809271</v>
       </c>
       <c r="T28">
-        <v>0.0007899603643564521</v>
+        <v>0.001067801743809271</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>15.7413192530555</v>
+        <v>21.74986877578144</v>
       </c>
       <c r="R29">
-        <v>15.7413192530555</v>
+        <v>195.748818982033</v>
       </c>
       <c r="S29">
-        <v>0.00156100476084533</v>
+        <v>0.001590426990714128</v>
       </c>
       <c r="T29">
-        <v>0.00156100476084533</v>
+        <v>0.001590426990714128</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>428.3804520163503</v>
+        <v>521.9133761748207</v>
       </c>
       <c r="R30">
-        <v>428.3804520163503</v>
+        <v>4697.220385573386</v>
       </c>
       <c r="S30">
-        <v>0.04248080572540305</v>
+        <v>0.03816414383186766</v>
       </c>
       <c r="T30">
-        <v>0.04248080572540305</v>
+        <v>0.03816414383186766</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>8.439731883574909</v>
+        <v>12.11362395611289</v>
       </c>
       <c r="R31">
-        <v>8.439731883574909</v>
+        <v>109.022615605016</v>
       </c>
       <c r="S31">
-        <v>0.0008369350394796996</v>
+        <v>0.0008857908382700572</v>
       </c>
       <c r="T31">
-        <v>0.0008369350394796996</v>
+        <v>0.0008857908382700572</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>16.73853178046304</v>
+        <v>117.860304295054</v>
       </c>
       <c r="R32">
-        <v>16.73853178046304</v>
+        <v>1060.742738655486</v>
       </c>
       <c r="S32">
-        <v>0.001659894407756952</v>
+        <v>0.00861836046079314</v>
       </c>
       <c r="T32">
-        <v>0.001659894407756952</v>
+        <v>0.008618360460793143</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>97.91496968165595</v>
+        <v>139.044761892592</v>
       </c>
       <c r="R33">
-        <v>97.91496968165595</v>
+        <v>1251.402857033328</v>
       </c>
       <c r="S33">
-        <v>0.009709842699583308</v>
+        <v>0.0101674425952233</v>
       </c>
       <c r="T33">
-        <v>0.009709842699583308</v>
+        <v>0.0101674425952233</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>8.127715459753578</v>
+        <v>17.79684160011</v>
       </c>
       <c r="R34">
-        <v>8.127715459753578</v>
+        <v>160.17157440099</v>
       </c>
       <c r="S34">
-        <v>0.000805993597074706</v>
+        <v>0.001301367724195016</v>
       </c>
       <c r="T34">
-        <v>0.000805993597074706</v>
+        <v>0.001301367724195017</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>16.06080899743295</v>
+        <v>26.507333776498</v>
       </c>
       <c r="R35">
-        <v>16.06080899743295</v>
+        <v>238.566003988482</v>
       </c>
       <c r="S35">
-        <v>0.001592687303076831</v>
+        <v>0.001938309583594073</v>
       </c>
       <c r="T35">
-        <v>0.001592687303076831</v>
+        <v>0.001938309583594074</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>437.0749685883612</v>
+        <v>636.074277380916</v>
       </c>
       <c r="R36">
-        <v>437.0749685883612</v>
+        <v>5724.668496428244</v>
       </c>
       <c r="S36">
-        <v>0.04334300676103246</v>
+        <v>0.04651199091242549</v>
       </c>
       <c r="T36">
-        <v>0.04334300676103246</v>
+        <v>0.0465119909124255</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>8.611026788325303</v>
+        <v>14.763301643696</v>
       </c>
       <c r="R37">
-        <v>8.611026788325303</v>
+        <v>132.869714793264</v>
       </c>
       <c r="S37">
-        <v>0.0008539216819284898</v>
+        <v>0.001079544600854483</v>
       </c>
       <c r="T37">
-        <v>0.0008539216819284898</v>
+        <v>0.001079544600854483</v>
       </c>
     </row>
   </sheetData>
